--- a/name to the output excel.xlsx
+++ b/name to the output excel.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
-  <si>
-    <t>Nummer</t>
-  </si>
-  <si>
-    <t>Tekst</t>
-  </si>
-  <si>
-    <t>Corpus</t>
-  </si>
-  <si>
-    <t>Corpus_clean</t>
-  </si>
-  <si>
-    <t>Corpus_clean_tokenized</t>
-  </si>
-  <si>
-    <t>Corpus_nostop</t>
-  </si>
-  <si>
-    <t>Corpus_lemmatized</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Textnumber</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
   <si>
     <t>cluster_kmeans</t>
@@ -71,114 +56,6 @@
   </si>
   <si>
     <t>The State of Data Flow about Higher Education in The Netherlands</t>
-  </si>
-  <si>
-    <t>Foam Flow Experiments I Estimation of the Bubble generationCoalescence Function</t>
-  </si>
-  <si>
-    <t>Brief Communication The Need for a NationalLevel Working Group for Higher Education Research Data in The Netherlands</t>
-  </si>
-  <si>
-    <t>Preparation of CucoFe Prealloyed powders by hydrometallurgical process</t>
-  </si>
-  <si>
-    <t>Responsible dosing of ironIIsulphate in a drinking water source in control of coagulation</t>
-  </si>
-  <si>
-    <t>Primary Production of Metals Input of Energy Water and other Resources</t>
-  </si>
-  <si>
-    <t>Real time data analysis during raw material extraction in developing countries societal acceptance and ethical use</t>
-  </si>
-  <si>
-    <t>['determination', 'of', 'the', 'most', 'significant', 'variables', 'affecting', 'the', 'steady', 'state', 'pressure', 'drop', 'in', 'selected', 'foam', 'flow', 'experiments']</t>
-  </si>
-  <si>
-    <t>['foam', 'flow', 'experiments', 'i', 'estimation', 'of', 'the', 'bubble', 'generationcoalescence', 'function']</t>
-  </si>
-  <si>
-    <t>['on', 'the', 'transformation', 'behaviour', 'of', 'niti', 'particulate', 'reinforced', 'aa2124', 'composites']</t>
-  </si>
-  <si>
-    <t>['brief', 'communication', 'the', 'need', 'for', 'a', 'nationallevel', 'working', 'group', 'for', 'higher', 'education', 'research', 'data', 'in', 'the', 'netherlands']</t>
-  </si>
-  <si>
-    <t>['preparation', 'of', 'cucofe', 'prealloyed', 'powders', 'by', 'hydrometallurgical', 'process']</t>
-  </si>
-  <si>
-    <t>['matrix', 'material', 'for', 'diamond', 'tools']</t>
-  </si>
-  <si>
-    <t>['trends', 'in', 'diamond', 'tools', 'for', 'stone', 'processing']</t>
-  </si>
-  <si>
-    <t>['responsible', 'dosing', 'of', 'ironiisulphate', 'in', 'a', 'drinking', 'water', 'source', 'in', 'control', 'of', 'coagulation']</t>
-  </si>
-  <si>
-    <t>['primary', 'production', 'of', 'metals', 'input', 'of', 'energy', 'water', 'and', 'other', 'resources']</t>
-  </si>
-  <si>
-    <t>['real', 'time', 'data', 'analysis', 'during', 'raw', 'material', 'extraction', 'in', 'developing', 'countries', 'societal', 'acceptance', 'and', 'ethical', 'use']</t>
-  </si>
-  <si>
-    <t>['the', 'state', 'of', 'data', 'flow', 'about', 'higher', 'education', 'in', 'the', 'netherlands']</t>
-  </si>
-  <si>
-    <t>['determination', 'significant', 'variables', 'affecting', 'steady', 'state', 'pressure', 'drop', 'selected', 'foam', 'flow', 'experiments']</t>
-  </si>
-  <si>
-    <t>['foam', 'flow', 'experiments', 'estimation', 'bubble', 'generationcoalescence', 'function']</t>
-  </si>
-  <si>
-    <t>['transformation', 'behaviour', 'niti', 'particulate', 'reinforced', 'aa2124', 'composites']</t>
-  </si>
-  <si>
-    <t>['brief', 'communication', 'need', 'nationallevel', 'working', 'group', 'higher', 'education', 'research', 'data', 'netherlands']</t>
-  </si>
-  <si>
-    <t>['preparation', 'cucofe', 'prealloyed', 'powders', 'hydrometallurgical', 'process']</t>
-  </si>
-  <si>
-    <t>['matrix', 'material', 'diamond', 'tools']</t>
-  </si>
-  <si>
-    <t>['trends', 'diamond', 'tools', 'stone', 'processing']</t>
-  </si>
-  <si>
-    <t>['responsible', 'dosing', 'ironiisulphate', 'drinking', 'water', 'source', 'control', 'coagulation']</t>
-  </si>
-  <si>
-    <t>['primary', 'production', 'metals', 'input', 'energy', 'water', 'resources']</t>
-  </si>
-  <si>
-    <t>['real', 'time', 'data', 'analysis', 'raw', 'material', 'extraction', 'developing', 'countries', 'societal', 'acceptance', 'ethical', 'use']</t>
-  </si>
-  <si>
-    <t>['state', 'data', 'flow', 'higher', 'education', 'netherlands']</t>
-  </si>
-  <si>
-    <t>['determination', 'significant', 'variable', 'affecting', 'steady', 'state', 'pressure', 'drop', 'selected', 'foam', 'flow', 'experiment']</t>
-  </si>
-  <si>
-    <t>['foam', 'flow', 'experiment', 'estimation', 'bubble', 'generationcoalescence', 'function']</t>
-  </si>
-  <si>
-    <t>['transformation', 'behaviour', 'niti', 'particulate', 'reinforced', 'aa2124', 'composite']</t>
-  </si>
-  <si>
-    <t>['preparation', 'cucofe', 'prealloyed', 'powder', 'hydrometallurgical', 'process']</t>
-  </si>
-  <si>
-    <t>['matrix', 'material', 'diamond', 'tool']</t>
-  </si>
-  <si>
-    <t>['trend', 'diamond', 'tool', 'stone', 'processing']</t>
-  </si>
-  <si>
-    <t>['primary', 'production', 'metal', 'input', 'energy', 'water', 'resource']</t>
-  </si>
-  <si>
-    <t>['real', 'time', 'data', 'analysis', 'raw', 'material', 'extraction', 'developing', 'country', 'societal', 'acceptance', 'ethical', 'use']</t>
   </si>
 </sst>
 </file>
@@ -536,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,23 +429,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -576,28 +438,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -605,28 +452,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -634,28 +466,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -663,28 +480,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -692,28 +494,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -721,28 +508,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -750,28 +522,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -779,28 +536,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -808,28 +550,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -837,28 +564,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -866,24 +578,9 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
